--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_specialties.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_specialties.xlsx
@@ -16,17 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Список врачей по специальности</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Список врачей по специальности Сомнолог</t>
   </si>
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Фамилия</t>
   </si>
   <si>
@@ -39,25 +36,22 @@
     <t>Стаж работы</t>
   </si>
   <si>
-    <t>Специальность</t>
-  </si>
-  <si>
-    <t>Круговов</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Офтальмолог</t>
-  </si>
-  <si>
-    <t>Сегмаш</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>Рудольфович</t>
+    <t>Захаров</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Захарович</t>
+  </si>
+  <si>
+    <t>Сонная</t>
+  </si>
+  <si>
+    <t>Василиса</t>
+  </si>
+  <si>
+    <t>Ивановна</t>
   </si>
 </sst>
 </file>
@@ -400,18 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,51 +436,39 @@
       <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B3" s="0">
-        <v>1</v>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0">
         <v>9</v>
-      </c>
-      <c r="F3" s="0">
-        <v>3</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B4" s="0">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0">
-        <v>2</v>
+      <c r="E4" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
